--- a/biology/Zoologie/Caridina_nilotica/Caridina_nilotica.xlsx
+++ b/biology/Zoologie/Caridina_nilotica/Caridina_nilotica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caridina nilotica est une espèce de crevettes africaine de la famille des Atyidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette crevette d'eau douce peut atteindre 25 mm de long[1]. Son rostre grêle est partiellement épineux dorsalement. La paire de pattes P1 présente une échancrure au niveau du carpe et une arthrobranchie à la base. Le bord postérieur du telson porte entre 4 et 8 épines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette crevette d'eau douce peut atteindre 25 mm de long. Son rostre grêle est partiellement épineux dorsalement. La paire de pattes P1 présente une échancrure au niveau du carpe et une arthrobranchie à la base. Le bord postérieur du telson porte entre 4 et 8 épines.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Cette crevette est détritivore, mais son comportement de migration journalière laisse penser qu'elle pourrait aussi être planctonivore[1].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette crevette est détritivore, mais son comportement de migration journalière laisse penser qu'elle pourrait aussi être planctonivore.
 </t>
         </is>
       </c>
@@ -576,9 +595,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Habitat
-Caridina nilotica vit dans les eaux douces, notamment en Afrique dans les grands lacs africain. Elle y réalise quotidiennement une migration verticale : le jour, elle se tient en profondeur (semble-t-il pour échapper à la prédation) puis se répartit la nuit dans toute la colonne d'eau[1].
-Répartition</t>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caridina nilotica vit dans les eaux douces, notamment en Afrique dans les grands lacs africain. Elle y réalise quotidiennement une migration verticale : le jour, elle se tient en profondeur (semble-t-il pour échapper à la prédation) puis se répartit la nuit dans toute la colonne d'eau.
+</t>
         </is>
       </c>
     </row>
@@ -606,9 +630,11 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caridina nilotica est une proie importante pour les jeunes perches du Nil jusqu'à ce qu'elles atteignent 40 cm de long, mais aussi pour d'autres espèces de poissons[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caridina nilotica est une proie importante pour les jeunes perches du Nil jusqu'à ce qu'elles atteignent 40 cm de long, mais aussi pour d'autres espèces de poissons.
 </t>
         </is>
       </c>
@@ -637,9 +663,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a aussi reçu les dénominations Pelias nilotica P. Roux, 1833 et Pelias niloticus P. Roux, 1833[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a aussi reçu les dénominations Pelias nilotica P. Roux, 1833 et Pelias niloticus P. Roux, 1833.
 </t>
         </is>
       </c>
